--- a/raw_data/eslasticidades exportaciones.xlsx
+++ b/raw_data/eslasticidades exportaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>1990-2001</t>
   </si>
@@ -82,14 +82,49 @@
   </si>
   <si>
     <t>Elasticida de exportaciones vs Pib mundial</t>
+  </si>
+  <si>
+    <t>Promedio paises iniciales</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>CARDM</t>
+  </si>
+  <si>
+    <t>SA paises iniciales</t>
+  </si>
+  <si>
+    <t>Promedio todos</t>
+  </si>
+  <si>
+    <t>CARDM todos</t>
+  </si>
+  <si>
+    <t>CARDM iniciales</t>
+  </si>
+  <si>
+    <t>SA todos</t>
+  </si>
+  <si>
+    <t>LAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,9 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,16 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A28" sqref="A28:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -453,13 +490,13 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.75914999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.60658800000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.74525300000000005</v>
       </c>
       <c r="K4" s="1"/>
@@ -469,13 +506,13 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.70944799999999997</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.80331600000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.90707700000000002</v>
       </c>
       <c r="J5" s="1"/>
@@ -486,13 +523,13 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.58319900000000002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.56543900000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.56467599999999996</v>
       </c>
       <c r="J6" s="1"/>
@@ -503,13 +540,13 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1.622384</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.89335200000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.92050299999999996</v>
       </c>
       <c r="J7" s="1"/>
@@ -520,13 +557,13 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.91434599999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.857742</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.88350499999999998</v>
       </c>
       <c r="J8" s="1"/>
@@ -537,13 +574,13 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.33581699999999998</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.78882099999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.76051599999999997</v>
       </c>
       <c r="J9" s="1"/>
@@ -554,13 +591,13 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.83846699999999996</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.83875100000000002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.86289899999999997</v>
       </c>
       <c r="J10" s="1"/>
@@ -571,11 +608,11 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>0.52421300000000004</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.72676600000000002</v>
       </c>
       <c r="J11" s="1"/>
@@ -586,11 +623,11 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>0.55618100000000004</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.49762099999999998</v>
       </c>
       <c r="J12" s="1"/>
@@ -601,13 +638,13 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.82095399999999996</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.83757300000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.83369400000000005</v>
       </c>
       <c r="J13" s="1"/>
@@ -618,13 +655,13 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>0.52701200000000004</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.48886499999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.58674599999999999</v>
       </c>
       <c r="J14" s="1"/>
@@ -635,13 +672,13 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>0.80377200000000004</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.81845699999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.80757100000000004</v>
       </c>
       <c r="J15" s="1"/>
@@ -652,13 +689,13 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.62492999999999999</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.53812599999999999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.59841500000000003</v>
       </c>
       <c r="J16" s="1"/>
@@ -669,13 +706,13 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>0.57302200000000003</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.60435700000000003</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.46013100000000001</v>
       </c>
       <c r="J17" s="1"/>
@@ -686,9 +723,9 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>0.999471</v>
       </c>
       <c r="J18" s="1"/>
@@ -699,48 +736,190 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>0.84483799999999998</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.78145799999999999</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22" s="1">
-        <f t="shared" ref="B22:C22" si="0" xml:space="preserve"> AVERAGE(B4:B19)</f>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:C20" si="0" xml:space="preserve"> AVERAGE(B4:B19)</f>
         <v>0.75937508333333337</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0.70444126666666673</v>
       </c>
-      <c r="D22">
+      <c r="D20" s="3">
         <f xml:space="preserve"> AVERAGE(D4:D19)</f>
         <v>0.74601887499999997</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24">
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
         <f>AVERAGE(B4:B10, B13:B17)</f>
         <v>0.75937508333333337</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C21" s="3">
         <f>AVERAGE(C4:C10, C13:C17)</f>
         <v>0.72011558333333336</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D21" s="3">
         <f>AVERAGE(D4:D10, D13:D17)</f>
         <v>0.74424883333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <f>AVERAGE(B4:B8,B10,B15,B16,B18,B19)</f>
+        <v>0.856962</v>
+      </c>
+      <c r="C22" s="3">
+        <f>AVERAGE(C4:C8,C10,C15,C16,C18,C19)</f>
+        <v>0.75184544444444446</v>
+      </c>
+      <c r="D22" s="3">
+        <f>AVERAGE(D4:D8,D10,D15,D16,D18,D19)</f>
+        <v>0.8070828000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <f>AVERAGE(B4:B8,B10,B15,B16)</f>
+        <v>0.856962</v>
+      </c>
+      <c r="C23" s="3">
+        <f>AVERAGE(C4:C8,C10,C15,C16)</f>
+        <v>0.74022137499999996</v>
+      </c>
+      <c r="D23" s="3">
+        <f>AVERAGE(D4:D8,D10,D15,D16)</f>
+        <v>0.78623737500000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <f>AVERAGE(B9,B11,B13,B14,B17)</f>
+        <v>0.56420124999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:D24" si="1">AVERAGE(C9,C11,C13,C14,C17)</f>
+        <v>0.64876579999999995</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67357059999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3">
+        <f>AVERAGE(B9,B13,B14,B17)</f>
+        <v>0.56420124999999999</v>
+      </c>
+      <c r="C25" s="3">
+        <f>AVERAGE(C9,C13,C14,C17)</f>
+        <v>0.67990400000000006</v>
+      </c>
+      <c r="D25" s="3">
+        <f>AVERAGE(D9,D13,D14,D17)</f>
+        <v>0.66027175000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" ref="B29:C29" si="2" xml:space="preserve"> AVERAGE(B13:B28)</f>
+        <v>0.70097878787878798</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69812578912037038</v>
+      </c>
+      <c r="D29" s="3">
+        <f xml:space="preserve"> AVERAGE(D13:D28)</f>
+        <v>0.729608941025641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <f>AVERAGE(B13:B17,B19,B24,B25,B27,B28)</f>
+        <v>0.6397275</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C13:C17,C19,C24,C25,C27,C28)</f>
+        <v>0.68261072499999997</v>
+      </c>
+      <c r="D30" s="3">
+        <f>AVERAGE(D13:D17,D19,D24,D25,D27,D28)</f>
+        <v>0.67523216875000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <f>AVERAGE(B18,B20,B22,B23,B26)</f>
+        <v>0.82443302777777772</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:D31" si="3">AVERAGE(C18,C20,C22,C23,C26)</f>
+        <v>0.73216936203703709</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83470251250000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
